--- a/Data/SeaPlus.xlsx
+++ b/Data/SeaPlus.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\1.Estudos\A. MASTER (MESIO)\1º Q\1. RiSAS\1. BLOQUE I - R\Final Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60D1D9E4-9D0D-46F7-A688-5C7537DF4BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B349BFD-9C49-469A-ABA4-06E302743AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="t15196200000c4" sheetId="1" r:id="rId1"/>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1051,11 +1051,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1103,186 +1103,186 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>2022</v>
+        <v>2000</v>
       </c>
       <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2021</v>
+        <v>2001</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
         <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s">
         <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>2020</v>
+        <v>2002</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
         <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="M4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>2019</v>
+        <v>2003</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="L5" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="M5" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="N5" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>2018</v>
+        <v>2004</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
@@ -1291,163 +1291,163 @@
         <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="K6" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M6" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="N6" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>2017</v>
+        <v>2005</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>2016</v>
+        <v>2006</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
       <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
         <v>19</v>
       </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" t="s">
-        <v>26</v>
-      </c>
       <c r="K8" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="L8" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="M8" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="N8" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>2015</v>
+        <v>2007</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
         <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K9" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="L9" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N9" t="s">
         <v>30</v>
@@ -1455,134 +1455,134 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K10" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="L10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N10" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
         <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K11" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>42</v>
       </c>
       <c r="M11" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="N11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
         <v>25</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J12" t="s">
         <v>16</v>
       </c>
       <c r="K12" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="L12" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
@@ -1631,175 +1631,175 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
         <v>47</v>
       </c>
-      <c r="C14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" t="s">
-        <v>50</v>
-      </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H14" t="s">
         <v>25</v>
       </c>
       <c r="I14" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J14" t="s">
         <v>16</v>
       </c>
       <c r="K14" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="L14" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="M14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N14" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="H15" t="s">
         <v>17</v>
       </c>
       <c r="I15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K15" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="L15" t="s">
         <v>42</v>
       </c>
       <c r="M15" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="N15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
-        <v>55</v>
-      </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J16" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K16" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="L16" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N16" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>2007</v>
+        <v>2015</v>
       </c>
       <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
         <v>20</v>
       </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" t="s">
-        <v>31</v>
-      </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I17" t="s">
         <v>18</v>
       </c>
       <c r="J17" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K17" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="L17" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="M17" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N17" t="s">
         <v>30</v>
@@ -1807,98 +1807,98 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>2006</v>
+        <v>2016</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I18" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J18" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K18" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L18" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="M18" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="N18" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>2005</v>
+        <v>2017</v>
       </c>
       <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" t="s">
-        <v>56</v>
-      </c>
-      <c r="L19" t="s">
-        <v>62</v>
-      </c>
-      <c r="M19" t="s">
-        <v>31</v>
-      </c>
       <c r="N19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>2004</v>
+        <v>2018</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
         <v>38</v>
@@ -1907,213 +1907,216 @@
         <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="H20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I20" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J20" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K20" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="L20" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M20" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="N20" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>2003</v>
+        <v>2019</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H21" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J21" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="K21" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L21" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="M21" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="N21" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>2002</v>
+        <v>2020</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H22" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J22" t="s">
         <v>20</v>
       </c>
       <c r="K22" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="L22" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="M22" t="s">
+        <v>27</v>
+      </c>
+      <c r="N22" t="s">
         <v>26</v>
-      </c>
-      <c r="N22" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>2001</v>
+        <v>2021</v>
       </c>
       <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
         <v>18</v>
       </c>
-      <c r="C23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" t="s">
-        <v>14</v>
-      </c>
       <c r="H23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J23" t="s">
         <v>26</v>
       </c>
       <c r="K23" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="L23" t="s">
         <v>28</v>
       </c>
       <c r="M23" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N23" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>2000</v>
+        <v>2022</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H24" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I24" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J24" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K24" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="L24" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="M24" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N24" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N24">
+    <sortCondition ref="A2:A24"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>